--- a/05_Gestantes/03_profissionais/procedimentos_tempos.xlsx
+++ b/05_Gestantes/03_profissionais/procedimentos_tempos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\03_profissionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A9D3C3-E58E-42FF-B9DF-50946651901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552B515-71BB-460B-84C7-95DBDFD5D615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimentos_hora" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,9 +68,6 @@
     <t>Urocultura</t>
   </si>
   <si>
-    <t>Tipo SanguÃ­nea e fator RH</t>
-  </si>
-  <si>
     <t>Colpocitologia</t>
   </si>
   <si>
@@ -155,12 +165,15 @@
   </si>
   <si>
     <t>Consulta de profissionais de nível superior da especializada (tÃ©cnico de enfermagem)</t>
+  </si>
+  <si>
+    <t>Tipo Sanguíneo e fator Rh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -994,11 +1007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1036,7 @@
         <v>301010110</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1078,7 +1091,7 @@
         <v>202030300</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1089,7 +1102,7 @@
         <v>202030970</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1100,7 +1113,7 @@
         <v>202031179</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1133,7 +1146,7 @@
         <v>202120082</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1144,7 +1157,7 @@
         <v>203010019</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1155,7 +1168,7 @@
         <v>214010015</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1166,7 +1179,7 @@
         <v>301010137</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1177,10 +1190,10 @@
         <v>101010010</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,7 +1201,7 @@
         <v>205020143</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1199,7 +1212,7 @@
         <v>301010153</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1210,7 +1223,7 @@
         <v>202010473</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1221,7 +1234,7 @@
         <v>202010120</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1232,7 +1245,7 @@
         <v>202010317</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1243,7 +1256,7 @@
         <v>202010619</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1254,7 +1267,7 @@
         <v>202010694</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1265,7 +1278,7 @@
         <v>202010759</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1276,7 +1289,7 @@
         <v>202020029</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1287,7 +1300,7 @@
         <v>205020151</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1298,7 +1311,7 @@
         <v>205020500</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1309,10 +1322,10 @@
         <v>211020036</v>
       </c>
       <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
         <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,7 +1333,7 @@
         <v>211040061</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1331,10 +1344,10 @@
         <v>301010072</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,10 +1355,10 @@
         <v>3010100480</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,7 +1366,7 @@
         <v>3010100481</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1364,7 +1377,7 @@
         <v>3010100482</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1375,10 +1388,10 @@
         <v>3010100483</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,7 +1399,7 @@
         <v>3010100484</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1397,10 +1410,10 @@
         <v>3010100485</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,7 +1421,7 @@
         <v>301010129</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1419,10 +1432,10 @@
         <v>310010039</v>
       </c>
       <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
         <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/05_Gestantes/03_profissionais/procedimentos_tempos.xlsx
+++ b/05_Gestantes/03_profissionais/procedimentos_tempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\03_profissionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552B515-71BB-460B-84C7-95DBDFD5D615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E9E64-D631-4D8B-99F0-73B63AAC3B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimentos_hora" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>codigo_sigtap</t>
   </si>
@@ -41,18 +41,9 @@
     <t>procedimento</t>
   </si>
   <si>
-    <t>Tempo</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>Eletroforese de Hemoglobina</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>Hemograma</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
     <t>Visita domiciliar</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Ultrassonografia</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>Eletrocardiograma</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>Tococardiografia ante-parto</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>Parto</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>Consulta Pré-Natal</t>
   </si>
   <si>
@@ -164,10 +146,16 @@
     <t>Consulta de profissionais de nível superior da especializada (fisioterapeuta)</t>
   </si>
   <si>
-    <t>Consulta de profissionais de nível superior da especializada (tÃ©cnico de enfermagem)</t>
-  </si>
-  <si>
     <t>Tipo Sanguíneo e fator Rh</t>
+  </si>
+  <si>
+    <t>Tempo_minutos</t>
+  </si>
+  <si>
+    <t>tempo_horas</t>
+  </si>
+  <si>
+    <t>Consulta de profissionais de nível superior da especializada (técnico de enfermagem)</t>
   </si>
 </sst>
 </file>
@@ -651,8 +639,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1008,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,7 +1009,7 @@
     <col min="2" max="2" width="79.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,414 +1017,565 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>301010110</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <f>D2/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>202020355</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C38" si="0">D3/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>202020380</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>202020479</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>202030180</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>202030300</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>202030970</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202031179</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>202050017</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>202080080</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>202120082</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>203010019</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>214010015</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>301010137</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>101010010</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>205020143</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>301010153</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>202010473</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>202010120</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>202010317</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>202010619</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>202010694</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>202010759</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>202020029</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>205020151</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>205020500</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>211020036</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>211040061</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>301010072</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3010100480</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3010100481</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3010100482</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3010100483</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3010100484</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3010100485</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>301010129</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>310010039</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/05_Gestantes/03_profissionais/procedimentos_tempos.xlsx
+++ b/05_Gestantes/03_profissionais/procedimentos_tempos.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\03_profissionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E9E64-D631-4D8B-99F0-73B63AAC3B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082385A5-3564-42DE-85F3-5B705C4358E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimentos_hora" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">procedimentos_hora!$A$1:$D$38</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1000,7 +1003,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,58 +1028,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>301010110</v>
+        <v>101010010</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <f>D2/60</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>202020355</v>
+        <v>202010120</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C38" si="0">D3/60</f>
-        <v>0.16666666666666666</v>
+        <f>D3/60</f>
+        <v>0.2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>202020380</v>
+        <v>202010317</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <f>D4/60</f>
+        <v>0.2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>202020479</v>
+        <v>202010473</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f>D5/60</f>
         <v>0.2</v>
       </c>
       <c r="D5">
@@ -1085,13 +1088,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>202030180</v>
+        <v>202010619</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f>D6/60</f>
         <v>0.2</v>
       </c>
       <c r="D6">
@@ -1100,13 +1103,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>202030300</v>
+        <v>202010694</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f>D7/60</f>
         <v>0.2</v>
       </c>
       <c r="D7">
@@ -1115,13 +1118,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>202030970</v>
+        <v>202010759</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f>D8/60</f>
         <v>0.2</v>
       </c>
       <c r="D8">
@@ -1130,13 +1133,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>202031179</v>
+        <v>202020029</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f>D9/60</f>
         <v>0.2</v>
       </c>
       <c r="D9">
@@ -1145,58 +1148,58 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>202050017</v>
+        <v>202020355</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f>D10/60</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>202080080</v>
+        <v>202020380</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f>D11/60</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>202120082</v>
+        <v>202020479</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>D12/60</f>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>203010019</v>
+        <v>202030180</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f>D13/60</f>
         <v>0.2</v>
       </c>
       <c r="D13">
@@ -1205,103 +1208,103 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>214010015</v>
+        <v>202030300</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f>D14/60</f>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>301010137</v>
+        <v>202030970</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f>D15/60</f>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>101010010</v>
+        <v>202031179</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D16/60</f>
+        <v>0.2</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>205020143</v>
+        <v>202050017</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>D17/60</f>
+        <v>0.25</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>301010153</v>
+        <v>202080080</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>D18/60</f>
+        <v>0.25</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>202010473</v>
+        <v>202120082</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>D19/60</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>202010120</v>
+        <v>203010019</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f>D20/60</f>
         <v>0.2</v>
       </c>
       <c r="D20">
@@ -1310,103 +1313,103 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>202010317</v>
+        <v>205020143</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>D21/60</f>
+        <v>0.5</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>202010619</v>
+        <v>205020151</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>D22/60</f>
+        <v>0.5</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>202010694</v>
+        <v>205020500</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>D23/60</f>
+        <v>0.5</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>202010759</v>
+        <v>211020036</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>D24/60</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>202020029</v>
+        <v>211040061</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>D25/60</f>
+        <v>0.5</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>205020151</v>
+        <v>214010015</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>D26/60</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>205020500</v>
+        <v>301010072</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f>D27/60</f>
         <v>0.5</v>
       </c>
       <c r="D27">
@@ -1415,28 +1418,28 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>211020036</v>
+        <v>301010110</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>D28/60</f>
+        <v>0.5</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>211040061</v>
+        <v>301010129</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f>D29/60</f>
         <v>0.5</v>
       </c>
       <c r="D29">
@@ -1445,28 +1448,28 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>301010072</v>
+        <v>301010137</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>D30/60</f>
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3010100480</v>
+        <v>301010153</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f>D31/60</f>
         <v>0.5</v>
       </c>
       <c r="D31">
@@ -1475,28 +1478,28 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3010100481</v>
+        <v>310010039</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>D32/60</f>
+        <v>2.5</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3010100482</v>
+        <v>3010100480</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
+        <f>D33/60</f>
         <v>0.5</v>
       </c>
       <c r="D33">
@@ -1505,13 +1508,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3010100483</v>
+        <v>3010100481</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f>D34/60</f>
         <v>0.5</v>
       </c>
       <c r="D34">
@@ -1520,13 +1523,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3010100484</v>
+        <v>3010100482</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f>D35/60</f>
         <v>0.5</v>
       </c>
       <c r="D35">
@@ -1535,13 +1538,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3010100485</v>
+        <v>3010100483</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f>D36/60</f>
         <v>0.5</v>
       </c>
       <c r="D36">
@@ -1550,13 +1553,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>301010129</v>
+        <v>3010100484</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f>D37/60</f>
         <v>0.5</v>
       </c>
       <c r="D37">
@@ -1565,20 +1568,25 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>310010039</v>
+        <v>3010100485</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f>D38/60</f>
+        <v>0.5</v>
       </c>
       <c r="D38">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D38" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
+      <sortCondition ref="A1:A38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>